--- a/convergence/2d_1d_LiLi.xlsx
+++ b/convergence/2d_1d_LiLi.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomy/PhD/Ultracold_Atoms_src/convergence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{263BAE70-5BD1-D846-AA39-F1F754509BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66650010-E0AA-AD45-958A-E2E07BC42198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16240" xr2:uid="{5A8065BB-F5B1-F84F-BA89-18CB1302B786}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16240" activeTab="1" xr2:uid="{5A8065BB-F5B1-F84F-BA89-18CB1302B786}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Orbitales" sheetId="1" r:id="rId1"/>
+    <sheet name="Configuraciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,12 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
   <si>
     <t>Simulaciones</t>
-  </si>
-  <si>
-    <t>Ag_Li7Li7_x18000_y18000_z18000_152rm8g2l34m24_102CM8g1L34M24_Li7Li7_nx6ny6nz6_nx6ny6nz6_ix4993iy4993iz50_ix4993iy50iz50b.eva</t>
   </si>
   <si>
     <t>E(hw)</t>
@@ -46,31 +44,7 @@
     <t>E(a.u)</t>
   </si>
   <si>
-    <t> 1,01204911580693</t>
-  </si>
-  <si>
     <t> 1,21409132471866</t>
-  </si>
-  <si>
-    <t> 1,48213159087744</t>
-  </si>
-  <si>
-    <t> 1,80397826952148</t>
-  </si>
-  <si>
-    <t> 2,15770708483166</t>
-  </si>
-  <si>
-    <t> 2,17324116946895</t>
-  </si>
-  <si>
-    <t> 2,29567173244916</t>
-  </si>
-  <si>
-    <t> 2,49771542345036</t>
-  </si>
-  <si>
-    <t> 2,58537790706058</t>
   </si>
   <si>
     <t>Teoría</t>
@@ -78,12 +52,36 @@
   <si>
     <t>Error</t>
   </si>
+  <si>
+    <t>(0,0,0)</t>
+  </si>
+  <si>
+    <t>(0,2,0)</t>
+  </si>
+  <si>
+    <t>(2,0,0)</t>
+  </si>
+  <si>
+    <t>(0,4,0)</t>
+  </si>
+  <si>
+    <t>(4,0,0)</t>
+  </si>
+  <si>
+    <t>Li7Li7_x18000_y18000_z18000_140rm8g2l60m8_80CM8g1L60M8</t>
+  </si>
+  <si>
+    <t>Li7Li7_x18000_y18000_z18000_152rm8g2l34m24_102CM8g1L34M24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,8 +101,14 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +157,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -168,28 +184,17 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -199,11 +204,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18C545F2-6802-2249-BCB2-5A3BCA8F88E9}">
-  <dimension ref="C4:R39"/>
+  <dimension ref="B4:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,396 +545,880 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+    <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="C4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="R4" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="3" t="s">
+      <c r="D4" s="32"/>
+      <c r="R4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.02884600422949</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>3.7681127213467202E-11</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="26">
+        <f>-LOG10(ABS(($E35 - $E9)/$E35))</f>
+        <v>10.38551140984398</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.84398129824319</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
+        <v>1.0415982630177901E-10</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="26">
+        <f t="shared" ref="R10:R13" si="0">-LOG10(ABS(($E36 - $E10)/$E36))</f>
+        <v>6.4963649887235873</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4.3465713934216401</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
+        <v>1.5919166614307499E-10</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="26">
+        <f t="shared" si="0"/>
+        <v>4.6098862771698963</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.8439803913385799</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
+        <v>1.0415982630177901E-10</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="26">
+        <f t="shared" si="0"/>
+        <v>2.4571816931595083</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4.3465713934216401</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="25">
+        <v>1.5919166614307499E-10</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="26">
+        <f t="shared" si="0"/>
+        <v>2.3276097409623646</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.0288460042052201</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6">
+        <v>3.76811272125783E-11</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="26">
+        <f>-LOG10(ABS(($E35 - $E22)/$E35))</f>
+        <v>10.755200351125987</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.8439803925441001</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14">
+        <v>1.04159793130866E-10</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="26">
+        <f t="shared" ref="R23:R25" si="1">-LOG10(ABS(($E36 - $E23)/$E36))</f>
+        <v>9.3727398797199708</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17">
+        <v>1.59187758325707E-10</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="26">
+        <f t="shared" si="1"/>
+        <v>8.2976963037136588</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2.8439803925441001</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28">
+        <v>1.03797578732471E-10</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="26">
+        <f t="shared" si="1"/>
+        <v>9.3997957834174279</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21">
+        <v>4.34646469432366</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
+        <v>1.58446466935435E-10</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="26">
+        <f>-LOG10(ABS(($E39 - $E26)/$E39))</f>
+        <v>8.3296829767067546</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="4">
+        <v>1.0288460041871399</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6">
+        <v>3.76811272119162E-11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="7">
+        <v>2.8439803913385799</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9">
+        <v>1.04159793086713E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1.5918775752363499E-10</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11">
+        <v>1.5918775752363499E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18">
+        <v>2.8439803913385799</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20">
+        <v>1.03797578691129E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="23">
+        <v>1.5844646619378401E-10</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="24">
+        <v>1.5844646619378401E-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836C9CCE-43A2-174B-B06A-496D3C8DB41F}">
+  <dimension ref="B4:R39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="C4" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="R4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.02884600422949</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6">
+        <v>3.7681127213467202E-11</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="26">
+        <f>-LOG10(ABS(($E35 - $E9)/$E35))</f>
+        <v>0.31606526719090672</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2.84398129824319</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
+        <v>1.0415982630177901E-10</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="26">
+        <f t="shared" ref="R10:R13" si="0">-LOG10(ABS(($E36 - $E10)/$E36))</f>
+        <v>0.34817144370319408</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11">
+        <v>4.3465713934216401</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11">
+        <v>1.5919166614307499E-10</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="26">
+        <f t="shared" si="0"/>
+        <v>0.39109292203615587</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.8439803913385799</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20">
+        <v>1.0415982630177901E-10</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="26">
+        <f t="shared" si="0"/>
+        <v>0.35024251025404263</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="23">
+        <v>4.3465713934216401</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="25">
+        <v>1.5919166614307499E-10</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="26">
+        <f t="shared" si="0"/>
+        <v>0.39388575981407348</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R21" s="27"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1.0288460042052201</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6">
+        <v>3.76811272125783E-11</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="26">
+        <f>-LOG10(ABS(($E35 - $E22)/$E35))</f>
+        <v>0.31606526717993982</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2.8439803925441001</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14">
+        <v>1.04159793130866E-10</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="26">
+        <f t="shared" ref="R23:R25" si="1">-LOG10(ABS(($E36 - $E23)/$E36))</f>
+        <v>0.34817127368139966</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C9" s="7">
-        <v>0.87408472209321997</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9">
-        <v>4.5268755158440599E-11</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="10">
-        <f>-LOG10(ABS(($C35 - $E9)/$C35))</f>
-        <v>9.0117383106336941</v>
-      </c>
-    </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C10" s="11" t="s">
+      <c r="D24" s="16"/>
+      <c r="E24" s="17">
+        <v>1.59187758325707E-10</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="26">
+        <f t="shared" si="1"/>
+        <v>0.39107734771289371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="30">
+        <v>2.8439803925441001</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="28">
+        <v>1.03797578732471E-10</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="26">
+        <f t="shared" si="1"/>
+        <v>0.34837369428580278</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="21">
+        <v>4.34646469432366</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23">
+        <v>1.58446466935435E-10</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="26">
+        <f>-LOG10(ABS(($E39 - $E26)/$E39))</f>
+        <v>0.39089382217488999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="33" spans="2:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13">
-        <v>5.2413916493204697E-11</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="14">
-        <f>-LOG10(ABS(($C36 - $E10)/$C36))</f>
-        <v>7.4335218682634947</v>
-      </c>
-    </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C11" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16">
-        <v>6.2877661088800302E-11</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="17">
-        <f>-LOG10(ABS(($C37 - $E11)/$C37))</f>
-        <v>6.6903858928637883</v>
-      </c>
-    </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C12" s="25" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27">
-        <v>7.6759438077520304E-11</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="28">
-        <f>-LOG10(ABS(($C38 - $E12)/$C38))</f>
-        <v>6.1359911238285205</v>
-      </c>
-    </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C13" s="29" t="s">
+      <c r="C35" s="4">
+        <v>1.9899778841412099</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6">
+        <v>7.2882248165475701E-11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31">
-        <v>9.3427843468708694E-11</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="32">
-        <f>-LOG10(ABS(($C39 - $E13)/$C39))</f>
-        <v>5.7115960273921189</v>
-      </c>
-    </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C14" s="3" t="s">
+      <c r="C36" s="7">
+        <v>5.1574495572670802</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9">
+        <v>1.8888979698177699E-10</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="11">
+        <v>7.3218530679989096</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="11">
+        <v>2.6816032307983998E-10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="5">
-        <v>1.1174742134030699E-11</v>
-      </c>
-    </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1.12551929938023E-11</v>
-      </c>
-    </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
+      <c r="C38" s="18">
+        <v>5.1375671510755199</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="20">
+        <v>1.88161610767384E-10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="5">
-        <v>1.1889259582472201E-11</v>
-      </c>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1.29356417177575E-11</v>
-      </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.33896447916961E-11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C22" s="7">
-        <v>0.87408472209321997</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="9">
-        <v>4.5268755158440599E-11</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8">
-        <f>-LOG10(ABS(($C35 - $E22)/$C35))</f>
-        <v>9.0117383106336941</v>
-      </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C23" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21">
-        <v>5.2413916493204697E-11</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20">
-        <f t="shared" ref="R23:R26" si="0">-LOG10(ABS(($C36 - $E23)/$C36))</f>
-        <v>7.4335218682634947</v>
-      </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24">
-        <v>6.2877661088800302E-11</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23">
-        <f t="shared" si="0"/>
-        <v>6.6903858928637883</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C25" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27">
-        <v>7.6759438077520304E-11</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26">
-        <f t="shared" si="0"/>
-        <v>6.1359911238285205</v>
-      </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C26" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31">
-        <v>9.3427843468708694E-11</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30">
-        <f t="shared" si="0"/>
-        <v>5.7115960273921189</v>
-      </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1.11747421340307E-10</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1.1255192993802301E-10</v>
-      </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1.1889259582472199E-10</v>
-      </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1.29356417177575E-10</v>
-      </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
-      <c r="C31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1.3389644791696101E-10</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="C33" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="4">
-        <v>4.5268755114379001E-11</v>
-      </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C36" s="4">
-        <v>5.24139145615712E-11</v>
-      </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C37" s="4">
-        <v>6.2877648262234394E-11</v>
-      </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C38" s="4">
-        <v>7.6759381954589097E-11</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C39" s="4">
-        <v>9.3427661967528497E-11</v>
+      <c r="C39" s="23">
+        <v>7.2898665785582297</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="24">
+        <v>2.6698882902458602E-10</v>
       </c>
     </row>
   </sheetData>

--- a/convergence/2d_1d_LiLi.xlsx
+++ b/convergence/2d_1d_LiLi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomy/PhD/Ultracold_Atoms_src/convergence/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66650010-E0AA-AD45-958A-E2E07BC42198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7211630-83EF-204E-9A01-1CAA4914A755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28420" windowHeight="16240" activeTab="1" xr2:uid="{5A8065BB-F5B1-F84F-BA89-18CB1302B786}"/>
+    <workbookView xWindow="-17760" yWindow="-28340" windowWidth="27740" windowHeight="28340" activeTab="1" xr2:uid="{5A8065BB-F5B1-F84F-BA89-18CB1302B786}"/>
   </bookViews>
   <sheets>
     <sheet name="Orbitales" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
   <si>
     <t>Simulaciones</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Li7Li7_x18000_y18000_z18000_152rm8g2l34m24_102CM8g1L34M24</t>
+  </si>
+  <si>
+    <t>Es exactamente igual</t>
   </si>
 </sst>
 </file>
@@ -984,10 +987,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836C9CCE-43A2-174B-B06A-496D3C8DB41F}">
-  <dimension ref="B4:R39"/>
+  <dimension ref="B4:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,11 +1022,11 @@
         <v>6</v>
       </c>
       <c r="C9" s="4">
-        <v>1.02884600422949</v>
+        <v>1.9899778841412099</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="6">
-        <v>3.7681127213467202E-11</v>
+        <v>7.2882248165475701E-11</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1037,9 +1040,9 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="26">
+      <c r="R9" s="26" t="e">
         <f>-LOG10(ABS(($E35 - $E9)/$E35))</f>
-        <v>0.31606526719090672</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -1047,11 +1050,11 @@
         <v>7</v>
       </c>
       <c r="C10" s="7">
-        <v>2.84398129824319</v>
+        <v>5.1574495572670802</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="9">
-        <v>1.0415982630177901E-10</v>
+        <v>1.8888979698177699E-10</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
@@ -1065,9 +1068,9 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="26">
+      <c r="R10" s="26" t="e">
         <f t="shared" ref="R10:R13" si="0">-LOG10(ABS(($E36 - $E10)/$E36))</f>
-        <v>0.34817144370319408</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -1075,11 +1078,11 @@
         <v>9</v>
       </c>
       <c r="C11" s="11">
-        <v>4.3465713934216401</v>
+        <v>7.3218530679989096</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11">
-        <v>1.5919166614307499E-10</v>
+        <v>2.6816032307983998E-10</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1093,9 +1096,9 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
-      <c r="R11" s="26">
+      <c r="R11" s="26" t="e">
         <f t="shared" si="0"/>
-        <v>0.39109292203615587</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -1103,11 +1106,11 @@
         <v>8</v>
       </c>
       <c r="C12" s="18">
-        <v>2.8439803913385799</v>
+        <v>5.1375671510755199</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20">
-        <v>1.0415982630177901E-10</v>
+        <v>1.88161610767384E-10</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -1121,9 +1124,9 @@
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
-      <c r="R12" s="26">
+      <c r="R12" s="26" t="e">
         <f t="shared" si="0"/>
-        <v>0.35024251025404263</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -1131,11 +1134,11 @@
         <v>10</v>
       </c>
       <c r="C13" s="23">
-        <v>4.3465713934216401</v>
+        <v>7.2898665785582297</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="25">
-        <v>1.5919166614307499E-10</v>
+        <v>2.6698882902458602E-10</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -1149,9 +1152,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="26">
+      <c r="R13" s="26" t="e">
         <f t="shared" si="0"/>
-        <v>0.39388575981407348</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -1169,38 +1172,38 @@
       <c r="E16" s="2"/>
       <c r="R16" s="27"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="E17" s="2"/>
       <c r="R17" s="27"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="E18" s="2"/>
       <c r="R18" s="27"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R19" s="27"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="R20" s="27"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R21" s="27"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="4">
-        <v>1.0288460042052201</v>
+        <v>1.9899778841412099</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="6">
-        <v>3.76811272125783E-11</v>
+        <v>7.2882248165475701E-11</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -1214,21 +1217,21 @@
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
-      <c r="R22" s="26">
+      <c r="R22" s="26" t="e">
         <f>-LOG10(ABS(($E35 - $E22)/$E35))</f>
-        <v>0.31606526717993982</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12">
-        <v>2.8439803925441001</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14">
-        <v>1.04159793130866E-10</v>
+      <c r="C23" s="7">
+        <v>5.1574495572670802</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9">
+        <v>1.8888979698177699E-10</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -1242,21 +1245,24 @@
       <c r="O23" s="13"/>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
-      <c r="R23" s="26">
+      <c r="R23" s="26" t="e">
         <f t="shared" ref="R23:R25" si="1">-LOG10(ABS(($E36 - $E23)/$E36))</f>
-        <v>0.34817127368139966</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+      <c r="S23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17">
-        <v>1.59187758325707E-10</v>
+      <c r="C24" s="11">
+        <v>7.3218530679989096</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11">
+        <v>2.6816032307983998E-10</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -1270,21 +1276,21 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16"/>
-      <c r="R24" s="26">
+      <c r="R24" s="26" t="e">
         <f t="shared" si="1"/>
-        <v>0.39107734771289371</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="30">
-        <v>2.8439803925441001</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28">
-        <v>1.03797578732471E-10</v>
+      <c r="C25" s="18">
+        <v>5.1375671510755199</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20">
+        <v>1.88161610767384E-10</v>
       </c>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
@@ -1298,21 +1304,21 @@
       <c r="O25" s="19"/>
       <c r="P25" s="19"/>
       <c r="Q25" s="19"/>
-      <c r="R25" s="26">
+      <c r="R25" s="26" t="e">
         <f t="shared" si="1"/>
-        <v>0.34837369428580278</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="21">
-        <v>4.34646469432366</v>
+      <c r="C26" s="23">
+        <v>7.2898665785582297</v>
       </c>
       <c r="D26" s="22"/>
-      <c r="E26" s="23">
-        <v>1.58446466935435E-10</v>
+      <c r="E26" s="25">
+        <v>2.6698882902458602E-10</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -1326,28 +1332,28 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
-      <c r="R26" s="26">
+      <c r="R26" s="26" t="e">
         <f>-LOG10(ABS(($E39 - $E26)/$E39))</f>
-        <v>0.39089382217488999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="E31" s="2"/>
     </row>
